--- a/30.04.xlsx
+++ b/30.04.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="zad1" sheetId="1" r:id="rId1"/>
     <sheet name="zad2" sheetId="2" r:id="rId2"/>
     <sheet name="zad3" sheetId="3" r:id="rId3"/>
+    <sheet name="zad5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>xśr=</t>
   </si>
@@ -113,6 +114,15 @@
   </si>
   <si>
     <t>odchylenie dla pop(s)</t>
+  </si>
+  <si>
+    <t>n-1=</t>
+  </si>
+  <si>
+    <t>próbki</t>
+  </si>
+  <si>
+    <t>popul</t>
   </si>
 </sst>
 </file>
@@ -310,6 +320,87 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="5668166" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96036</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5630061" cy="609685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="762000"/>
+          <a:ext cx="6716062" cy="1619476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1064,4 +1155,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50.2</v>
+      </c>
+      <c r="B6">
+        <v>50.3</v>
+      </c>
+      <c r="C6">
+        <v>50.5</v>
+      </c>
+      <c r="D6">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <f>B7-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(A6:D6)</f>
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.STDEV.S(A6:D6)</f>
+        <v>0.12909944487357966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <f>_xlfn.STDEV.P(A6:D6)</f>
+        <v>0.11180339887498869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>CHIDIST(0.05,B7)</f>
+        <v>0.99997079046000104</v>
+      </c>
+      <c r="C13">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>CHIINV(0.05,B8)</f>
+        <v>9.4877290367811575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>4*(B11)^2/C13</f>
+        <v>7.032348804500603E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>4*(B11)^2/B14</f>
+        <v>5.269965004919921E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>